--- a/final_data_pipeline/output/325311longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/325311longform_elec_options_nowhp.xlsx
@@ -657,7 +657,7 @@
         <v>66</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="J2">
         <v>8000</v>
@@ -672,10 +672,10 @@
         <v>87103.90708026808</v>
       </c>
       <c r="N2">
-        <v>1.025288461538461</v>
+        <v>0.988840803709428</v>
       </c>
       <c r="O2">
-        <v>1.0563</v>
+        <v>1.017303370786517</v>
       </c>
       <c r="P2">
         <v>10.88798838503351</v>
@@ -710,7 +710,7 @@
         <v>67</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="J3">
         <v>8000</v>
@@ -757,7 +757,7 @@
         <v>66</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="J4">
         <v>8000</v>
@@ -772,10 +772,10 @@
         <v>170938.2782512585</v>
       </c>
       <c r="N4">
-        <v>1.025288461538461</v>
+        <v>1.039134630545334</v>
       </c>
       <c r="O4">
-        <v>1.0563</v>
+        <v>1.071143586266607</v>
       </c>
       <c r="P4">
         <v>21.36728478140731</v>
@@ -810,7 +810,7 @@
         <v>67</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="J5">
         <v>8000</v>
@@ -1057,7 +1057,7 @@
         <v>66</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="J10">
         <v>8000</v>
@@ -1072,10 +1072,10 @@
         <v>3272184.767280684</v>
       </c>
       <c r="N10">
-        <v>1.025288461538461</v>
+        <v>1.046893692841948</v>
       </c>
       <c r="O10">
-        <v>1.0563</v>
+        <v>1.079468594462633</v>
       </c>
       <c r="P10">
         <v>409.0230959100855</v>
@@ -1110,7 +1110,7 @@
         <v>67</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="J11">
         <v>8000</v>
@@ -1457,7 +1457,7 @@
         <v>66</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J18">
         <v>8000</v>
@@ -1472,10 +1472,10 @@
         <v>9359.220588423192</v>
       </c>
       <c r="N18">
-        <v>1.025288461538461</v>
+        <v>1.043253580005337</v>
       </c>
       <c r="O18">
-        <v>1.0563</v>
+        <v>1.075562343793391</v>
       </c>
       <c r="P18">
         <v>1.169902573552899</v>
@@ -1510,7 +1510,7 @@
         <v>67</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J19">
         <v>8000</v>
@@ -1757,7 +1757,7 @@
         <v>66</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="J24">
         <v>8000</v>
@@ -1772,10 +1772,10 @@
         <v>1656.897387630304</v>
       </c>
       <c r="N24">
-        <v>1.025288461538461</v>
+        <v>1.034898269710531</v>
       </c>
       <c r="O24">
-        <v>1.0563</v>
+        <v>1.066600353276151</v>
       </c>
       <c r="P24">
         <v>0.207112173453788</v>
@@ -1810,7 +1810,7 @@
         <v>67</v>
       </c>
       <c r="I25">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="J25">
         <v>8000</v>
@@ -1857,7 +1857,7 @@
         <v>66</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="J26">
         <v>8000</v>
@@ -1872,10 +1872,10 @@
         <v>1500641.110016775</v>
       </c>
       <c r="N26">
-        <v>1.025288461538461</v>
+        <v>1.0530876503132</v>
       </c>
       <c r="O26">
-        <v>1.0563</v>
+        <v>1.086117960679774</v>
       </c>
       <c r="P26">
         <v>187.5801387520968</v>
@@ -1910,7 +1910,7 @@
         <v>67</v>
       </c>
       <c r="I27">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="J27">
         <v>8000</v>
@@ -2157,7 +2157,7 @@
         <v>66</v>
       </c>
       <c r="I32">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J32">
         <v>8000</v>
@@ -2172,10 +2172,10 @@
         <v>334817.2673782418</v>
       </c>
       <c r="N32">
-        <v>1.025288461538461</v>
+        <v>0.9939102066179896</v>
       </c>
       <c r="O32">
-        <v>1.0563</v>
+        <v>1.022720671292561</v>
       </c>
       <c r="P32">
         <v>41.85215842228022</v>
@@ -2210,7 +2210,7 @@
         <v>67</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J33">
         <v>8000</v>
@@ -2357,7 +2357,7 @@
         <v>66</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="J36">
         <v>8000</v>
@@ -2372,10 +2372,10 @@
         <v>1238836.56981586</v>
       </c>
       <c r="N36">
-        <v>1.025288461538461</v>
+        <v>1.046893692841948</v>
       </c>
       <c r="O36">
-        <v>1.0563</v>
+        <v>1.079468594462633</v>
       </c>
       <c r="P36">
         <v>154.8545712269825</v>
@@ -2410,7 +2410,7 @@
         <v>67</v>
       </c>
       <c r="I37">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="J37">
         <v>8000</v>
@@ -2657,7 +2657,7 @@
         <v>66</v>
       </c>
       <c r="I42">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J42">
         <v>8000</v>
@@ -2672,10 +2672,10 @@
         <v>1015125.367049271</v>
       </c>
       <c r="N42">
-        <v>1.025288461538461</v>
+        <v>1.043253580005337</v>
       </c>
       <c r="O42">
-        <v>1.0563</v>
+        <v>1.075562343793391</v>
       </c>
       <c r="P42">
         <v>126.8906708811589</v>
@@ -2710,7 +2710,7 @@
         <v>67</v>
       </c>
       <c r="I43">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J43">
         <v>8000</v>
@@ -2857,7 +2857,7 @@
         <v>66</v>
       </c>
       <c r="I46">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="J46">
         <v>8000</v>
@@ -2872,10 +2872,10 @@
         <v>25921.64503234384</v>
       </c>
       <c r="N46">
-        <v>1.025288461538461</v>
+        <v>1.054730517716163</v>
       </c>
       <c r="O46">
-        <v>1.0563</v>
+        <v>1.087882159227449</v>
       </c>
       <c r="P46">
         <v>3.24020562904298</v>
@@ -2910,7 +2910,7 @@
         <v>67</v>
       </c>
       <c r="I47">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="J47">
         <v>8000</v>
@@ -3057,7 +3057,7 @@
         <v>66</v>
       </c>
       <c r="I50">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J50">
         <v>8000</v>
@@ -3072,10 +3072,10 @@
         <v>1014281.485513026</v>
       </c>
       <c r="N50">
-        <v>1.025288461538461</v>
+        <v>1.043253580005337</v>
       </c>
       <c r="O50">
-        <v>1.0563</v>
+        <v>1.075562343793391</v>
       </c>
       <c r="P50">
         <v>126.7851856891283</v>
@@ -3110,7 +3110,7 @@
         <v>67</v>
       </c>
       <c r="I51">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J51">
         <v>8000</v>
@@ -3457,7 +3457,7 @@
         <v>66</v>
       </c>
       <c r="I58">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J58">
         <v>8000</v>
@@ -3472,10 +3472,10 @@
         <v>1057448.281540857</v>
       </c>
       <c r="N58">
-        <v>1.025288461538461</v>
+        <v>1.043253580005337</v>
       </c>
       <c r="O58">
-        <v>1.0563</v>
+        <v>1.075562343793391</v>
       </c>
       <c r="P58">
         <v>132.1810351926071</v>
@@ -3510,7 +3510,7 @@
         <v>67</v>
       </c>
       <c r="I59">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J59">
         <v>8000</v>
